--- a/Telugu/DataBase.xlsx
+++ b/Telugu/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-WebApp-VideoSongs\Telugu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E35A8B-1054-4C77-B00A-08DD83BA381F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D606D6D-FFB8-40D4-A9ED-56F151E6FD87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF0E904B-963D-428B-9BAA-C795B10E0830}"/>
   </bookViews>
@@ -242,202 +242,202 @@
     <t>https://www.youtube.com/results?search_query=Krishna+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_1.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=anushka+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_2.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Soundarya+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_3.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Kajal Aggarwal+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_4.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Samantha+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_5.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Tamannaah+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_6.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Shruti+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_7.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Shriya+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_8.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Savitri+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_9.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Ileana+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_10.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Nayanthara+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_11.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Trisha+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_12.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Genelia+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_13.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Hansika+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_14.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Sneha+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_15.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Sridevi+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_16.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Priyamani+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_17.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Meena+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_18.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=DeekshaSeth+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_19.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Rambha+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_20.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Simran+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_21.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Shobana+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_22.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=RichaGangopadhyay+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_23.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Suhasini+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_24.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=JayaPrada+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_25.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=AmalaPaul+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_26.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Jayasudha+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_27.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=SwatiReddy+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_28.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Bhanupriya+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_29.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Radha+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_30.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=RadhikaSarathkumar+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_31.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=MeeraJasmine+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_32.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Jamuna+telugu+video+songss</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indptechnologies/TeluguVideoSongs/master/Female_33.png</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/results?search_query=Roja+telugu+video+songss</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-VideoSongs/master/Telugu/Female_33.png</t>
   </si>
 </sst>
 </file>
@@ -792,12 +792,12 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1083,266 +1083,266 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
